--- a/Settings.xlsx
+++ b/Settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tyscott\scotttyso\intersight_iac\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\dcadmin\github\intersight_iac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597B4A84-6846-4FEC-A251-50D11E30B0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77379301-3153-4903-834A-C81A15874275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="803" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="4416" windowWidth="23256" windowHeight="12456" tabRatio="803" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sites" sheetId="15" r:id="rId1"/>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="835">
   <si>
     <t>Type</t>
   </si>
@@ -2875,9 +2875,6 @@
     <t>UCS Servers</t>
   </si>
   <si>
-    <t>asgard-esxi01</t>
-  </si>
-  <si>
     <t>asgard-vcenter</t>
   </si>
   <si>
@@ -2899,9 +2896,6 @@
     <t>MGMT</t>
   </si>
   <si>
-    <t>MIGRATION</t>
-  </si>
-  <si>
     <t>vds</t>
   </si>
   <si>
@@ -2926,9 +2920,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>asgard-esxi02</t>
-  </si>
-  <si>
     <t>10.92.101.51</t>
   </si>
   <si>
@@ -3107,6 +3098,87 @@
   </si>
   <si>
     <t>license_type</t>
+  </si>
+  <si>
+    <t>kzoesx01</t>
+  </si>
+  <si>
+    <t>kzoesx02</t>
+  </si>
+  <si>
+    <t>kzoesx03</t>
+  </si>
+  <si>
+    <t>kzoesx04</t>
+  </si>
+  <si>
+    <t>kzoesx05</t>
+  </si>
+  <si>
+    <t>kzoesx06</t>
+  </si>
+  <si>
+    <t>kzoesx07</t>
+  </si>
+  <si>
+    <t>kzoesx08</t>
+  </si>
+  <si>
+    <t>10.92.101.53</t>
+  </si>
+  <si>
+    <t>10.92.102.53</t>
+  </si>
+  <si>
+    <t>10.92.103.53</t>
+  </si>
+  <si>
+    <t>10.92.101.54</t>
+  </si>
+  <si>
+    <t>10.92.102.54</t>
+  </si>
+  <si>
+    <t>10.92.103.54</t>
+  </si>
+  <si>
+    <t>10.92.101.55</t>
+  </si>
+  <si>
+    <t>10.92.102.55</t>
+  </si>
+  <si>
+    <t>10.92.103.55</t>
+  </si>
+  <si>
+    <t>10.92.101.56</t>
+  </si>
+  <si>
+    <t>10.92.102.56</t>
+  </si>
+  <si>
+    <t>10.92.103.56</t>
+  </si>
+  <si>
+    <t>10.92.101.57</t>
+  </si>
+  <si>
+    <t>10.92.102.57</t>
+  </si>
+  <si>
+    <t>10.92.103.57</t>
+  </si>
+  <si>
+    <t>10.92.101.58</t>
+  </si>
+  <si>
+    <t>10.92.102.58</t>
+  </si>
+  <si>
+    <t>10.92.103.58</t>
+  </si>
+  <si>
+    <t>VMOTION</t>
   </si>
 </sst>
 </file>
@@ -3116,7 +3188,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3187,6 +3259,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3760,28 +3838,28 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="18.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.1796875" style="3"/>
+    <col min="1" max="1" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>41</v>
       </c>
@@ -3803,7 +3881,7 @@
       <c r="Q1" s="43"/>
       <c r="R1" s="31"/>
     </row>
-    <row r="2" spans="1:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29"/>
       <c r="B2" s="44" t="s">
         <v>228</v>
@@ -3825,7 +3903,7 @@
       <c r="Q2" s="44"/>
       <c r="R2" s="30"/>
     </row>
-    <row r="3" spans="1:18" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -3874,7 +3952,7 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>60</v>
       </c>
@@ -3923,7 +4001,7 @@
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>60</v>
       </c>
@@ -3972,7 +4050,7 @@
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="22"/>
@@ -3991,7 +4069,7 @@
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="23"/>
@@ -4010,7 +4088,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="17"/>
@@ -4029,7 +4107,7 @@
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="23"/>
@@ -4048,7 +4126,7 @@
       <c r="P9" s="13"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="22"/>
@@ -4067,7 +4145,7 @@
       <c r="P10" s="12"/>
       <c r="Q10" s="8"/>
     </row>
-    <row r="11" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="23"/>
@@ -4086,7 +4164,7 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="9"/>
     </row>
-    <row r="12" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="17"/>
@@ -4105,7 +4183,7 @@
       <c r="P12" s="12"/>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="23"/>
@@ -4124,7 +4202,7 @@
       <c r="P13" s="13"/>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="22"/>
@@ -4143,7 +4221,7 @@
       <c r="P14" s="12"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="23"/>
@@ -4162,7 +4240,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="9"/>
     </row>
-    <row r="17" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
         <v>42</v>
       </c>
@@ -4183,7 +4261,7 @@
       <c r="P17" s="43"/>
       <c r="Q17" s="43"/>
     </row>
-    <row r="18" spans="1:17" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29"/>
       <c r="B18" s="45" t="s">
         <v>229</v>
@@ -4204,7 +4282,7 @@
       <c r="P18" s="44"/>
       <c r="Q18" s="44"/>
     </row>
-    <row r="19" spans="1:17" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>0</v>
       </c>
@@ -4257,7 +4335,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>236</v>
       </c>
@@ -4284,7 +4362,7 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
     </row>
-    <row r="21" spans="1:17" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -4303,7 +4381,7 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
     </row>
-    <row r="22" spans="1:17" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -4322,7 +4400,7 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
     </row>
-    <row r="23" spans="1:17" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -4341,7 +4419,7 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
     </row>
-    <row r="24" spans="1:17" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -4360,7 +4438,7 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
     </row>
-    <row r="25" spans="1:17" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -4431,35 +4509,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A250C3-9683-4B6C-B4E9-67AA5B03538C}">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="5.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.1796875" style="28"/>
+    <col min="1" max="1" width="7.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="5.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="40" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="40" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="46"/>
@@ -4475,7 +4553,7 @@
       <c r="M1" s="46"/>
       <c r="N1" s="38"/>
     </row>
-    <row r="2" spans="1:14" s="40" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" s="40" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="45"/>
       <c r="C2" s="44"/>
@@ -4491,30 +4569,30 @@
       <c r="M2" s="44"/>
       <c r="N2" s="39"/>
     </row>
-    <row r="3" spans="1:14" s="40" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" s="40" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>775</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>777</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>778</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>779</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>780</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>781</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>782</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>783</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
@@ -4523,9 +4601,9 @@
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>45</v>
@@ -4555,7 +4633,7 @@
       <c r="M4" s="26"/>
       <c r="N4" s="26"/>
     </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -4570,9 +4648,9 @@
       <c r="L5" s="40"/>
       <c r="M5" s="40"/>
     </row>
-    <row r="6" spans="1:14" s="40" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" s="40" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B6" s="46"/>
       <c r="C6" s="46"/>
@@ -4588,7 +4666,7 @@
       <c r="M6" s="46"/>
       <c r="N6" s="41"/>
     </row>
-    <row r="7" spans="1:14" s="40" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" s="40" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="45"/>
       <c r="C7" s="44"/>
@@ -4604,55 +4682,55 @@
       <c r="M7" s="44"/>
       <c r="N7" s="42"/>
     </row>
-    <row r="8" spans="1:14" s="40" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" s="40" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E8" s="15" t="s">
+        <v>767</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>769</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>770</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="I8" s="15" t="s">
         <v>771</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="J8" s="15" t="s">
         <v>772</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="K8" s="15" t="s">
         <v>773</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="L8" s="15" t="s">
         <v>774</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>775</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>776</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>777</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
     </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>45</v>
@@ -4661,36 +4739,36 @@
         <v>730</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
     </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="7" t="s">
         <v>254</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>45</v>
@@ -4699,26 +4777,26 @@
         <v>730</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27"/>
       <c r="N10" s="27"/>
     </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="26"/>
@@ -4734,7 +4812,7 @@
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
     </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="7"/>
       <c r="C12" s="27"/>
@@ -4750,7 +4828,7 @@
       <c r="M12" s="27"/>
       <c r="N12" s="27"/>
     </row>
-    <row r="13" spans="1:14" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="26"/>
@@ -4766,7 +4844,7 @@
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
     </row>
-    <row r="14" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="7"/>
       <c r="C14" s="27"/>
@@ -4782,7 +4860,7 @@
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
     </row>
-    <row r="15" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
@@ -4797,9 +4875,9 @@
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
     </row>
-    <row r="16" spans="1:14" s="40" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" s="40" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="46" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B16" s="46"/>
       <c r="C16" s="46"/>
@@ -4815,7 +4893,7 @@
       <c r="M16" s="46"/>
       <c r="N16" s="41"/>
     </row>
-    <row r="17" spans="1:14" s="40" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" s="40" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="45"/>
       <c r="C17" s="44"/>
@@ -4831,15 +4909,15 @@
       <c r="M17" s="44"/>
       <c r="N17" s="42"/>
     </row>
-    <row r="18" spans="1:14" s="40" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" s="40" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>729</v>
@@ -4855,15 +4933,15 @@
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
     </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>730</v>
@@ -4879,18 +4957,18 @@
       <c r="M19" s="26"/>
       <c r="N19" s="26"/>
     </row>
-    <row r="20" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>254</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>741</v>
+        <v>834</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
@@ -4903,18 +4981,18 @@
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
     </row>
-    <row r="21" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
@@ -4927,18 +5005,18 @@
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
     </row>
-    <row r="22" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
@@ -4951,18 +5029,18 @@
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
     </row>
-    <row r="23" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>741</v>
+        <v>834</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
@@ -4975,18 +5053,18 @@
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
     </row>
-    <row r="24" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
@@ -4999,18 +5077,18 @@
       <c r="M24" s="27"/>
       <c r="N24" s="27"/>
     </row>
-    <row r="25" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
@@ -5023,7 +5101,7 @@
       <c r="M25" s="26"/>
       <c r="N25" s="26"/>
     </row>
-    <row r="26" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="7"/>
       <c r="C26" s="27"/>
@@ -5039,7 +5117,7 @@
       <c r="M26" s="27"/>
       <c r="N26" s="27"/>
     </row>
-    <row r="27" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="11"/>
       <c r="C27" s="26"/>
@@ -5055,7 +5133,7 @@
       <c r="M27" s="26"/>
       <c r="N27" s="26"/>
     </row>
-    <row r="28" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="40"/>
       <c r="C28" s="40"/>
@@ -5070,9 +5148,9 @@
       <c r="L28" s="40"/>
       <c r="M28" s="40"/>
     </row>
-    <row r="29" spans="1:14" s="40" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" s="40" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="46" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B29" s="46"/>
       <c r="C29" s="46"/>
@@ -5088,7 +5166,7 @@
       <c r="M29" s="46"/>
       <c r="N29" s="41"/>
     </row>
-    <row r="30" spans="1:14" s="40" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" s="40" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="45"/>
       <c r="C30" s="44"/>
@@ -5104,30 +5182,30 @@
       <c r="M30" s="44"/>
       <c r="N30" s="42"/>
     </row>
-    <row r="31" spans="1:14" s="40" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" s="40" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>729</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
@@ -5136,27 +5214,27 @@
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
     </row>
-    <row r="32" spans="1:14" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>730</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
@@ -5166,27 +5244,27 @@
       <c r="M32" s="26"/>
       <c r="N32" s="26"/>
     </row>
-    <row r="33" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>254</v>
       </c>
       <c r="C33" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="D33" s="27" t="s">
         <v>753</v>
       </c>
-      <c r="D33" s="27" t="s">
-        <v>756</v>
-      </c>
       <c r="E33" s="10" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
@@ -5196,27 +5274,27 @@
       <c r="M33" s="27"/>
       <c r="N33" s="27"/>
     </row>
-    <row r="34" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
@@ -5226,27 +5304,27 @@
       <c r="M34" s="26"/>
       <c r="N34" s="26"/>
     </row>
-    <row r="35" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
@@ -5256,27 +5334,27 @@
       <c r="M35" s="27"/>
       <c r="N35" s="27"/>
     </row>
-    <row r="36" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="H36" s="26"/>
       <c r="I36" s="26"/>
@@ -5286,7 +5364,7 @@
       <c r="M36" s="26"/>
       <c r="N36" s="26"/>
     </row>
-    <row r="37" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="7"/>
       <c r="C37" s="27"/>
@@ -5302,7 +5380,7 @@
       <c r="M37" s="27"/>
       <c r="N37" s="27"/>
     </row>
-    <row r="38" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="11"/>
       <c r="C38" s="26"/>
@@ -5318,7 +5396,7 @@
       <c r="M38" s="26"/>
       <c r="N38" s="26"/>
     </row>
-    <row r="39" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="7"/>
       <c r="C39" s="27"/>
@@ -5334,7 +5412,7 @@
       <c r="M39" s="27"/>
       <c r="N39" s="27"/>
     </row>
-    <row r="40" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="40"/>
       <c r="C40" s="40"/>
@@ -5349,7 +5427,7 @@
       <c r="L40" s="40"/>
       <c r="M40" s="40"/>
     </row>
-    <row r="41" spans="1:18" s="36" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:18" s="36" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="46" t="s">
         <v>732</v>
       </c>
@@ -5369,7 +5447,7 @@
       <c r="O41" s="41"/>
       <c r="P41" s="41"/>
     </row>
-    <row r="42" spans="1:18" s="36" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:18" s="36" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="45"/>
       <c r="C42" s="44"/>
@@ -5387,93 +5465,93 @@
       <c r="O42" s="42"/>
       <c r="P42" s="42"/>
     </row>
-    <row r="43" spans="1:18" s="36" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:18" s="36" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B43" s="15" t="s">
+        <v>785</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>746</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>790</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>763</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="J43" s="15" t="s">
+        <v>797</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>765</v>
+      </c>
+      <c r="L43" s="15" t="s">
+        <v>798</v>
+      </c>
+      <c r="M43" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="N43" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="O43" s="15" t="s">
         <v>788</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>748</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>796</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>793</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>810</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>766</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>799</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>767</v>
-      </c>
-      <c r="J43" s="15" t="s">
-        <v>800</v>
-      </c>
-      <c r="K43" s="15" t="s">
-        <v>768</v>
-      </c>
-      <c r="L43" s="15" t="s">
-        <v>801</v>
-      </c>
-      <c r="M43" s="15" t="s">
+      <c r="P43" s="15" t="s">
         <v>789</v>
       </c>
-      <c r="N43" s="15" t="s">
-        <v>790</v>
-      </c>
-      <c r="O43" s="15" t="s">
-        <v>791</v>
-      </c>
-      <c r="P43" s="15" t="s">
-        <v>792</v>
-      </c>
       <c r="R43" s="40"/>
     </row>
-    <row r="44" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>731</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>733</v>
+        <v>808</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>45</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>254</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="M44" s="6" t="s">
         <v>45</v>
@@ -5482,48 +5560,48 @@
         <v>254</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="P44" s="6" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>750</v>
+      <c r="B45" s="11" t="s">
+        <v>809</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>254</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>45</v>
@@ -5532,63 +5610,311 @@
         <v>254</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="6"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-    </row>
-    <row r="47" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="7"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-    </row>
-    <row r="48" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="1:13" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="36"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+        <v>744</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>816</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>817</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>819</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="36" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>822</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N48" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>825</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N49" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N50" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>832</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>833</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N51" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>744</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5603,15 +5929,16 @@
     <mergeCell ref="A16:M16"/>
     <mergeCell ref="B17:M17"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="11">
     <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Node ID" error="Valid Node ID is between 101 and 4000" sqref="N42:P42 N2 I4:N4 C4:G4 N17 E9:E14 N7 N30 C19:N27 M9:N14 I9:I14 K9:K14 G9:G14 C9:C14 C32:E39 H32:N39" xr:uid="{7F0FDBF6-E1E8-4710-8155-D3EA8BB522FA}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D14 B4 B9:B14 C44:C47 B19:B27 B32:B39 E44:E47 L44:P47 H44:H47 J44:J47" xr:uid="{6FF551F7-132C-4E16-896E-9ADB7AD96A3B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D14 B4 B9:B14 C44:C51 B19:B27 B32:B39 L44:P51 E44:E51 H44:H51 J44:J51" xr:uid="{6FF551F7-132C-4E16-896E-9ADB7AD96A3B}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,Grp_A,Grp_B,Grp_C,Grp_D,Grp_E,Grp_F"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Node ID" error="Valid Node ID is between 101 and 4000" sqref="F9:F14 L9:L14 J9:J14 H9:H14" xr:uid="{7E9CAF4B-DA88-4C13-B6EE-6F1A1FF7B6E3}">
       <formula1>"standard,vds"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A44:A47" xr:uid="{BAD68011-07AD-42A2-A317-0601DD274A07}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A44:A51" xr:uid="{BAD68011-07AD-42A2-A317-0601DD274A07}">
       <formula1>"server"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{94F8F0C2-DAAD-4F2E-8737-B3051B61216F}">
@@ -5632,7 +5959,7 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Node ID" error="Valid Node ID is between 101 and 4000" sqref="F32:G39" xr:uid="{8FF1FA95-D0E4-489D-BCF0-4075E8E022CD}">
       <formula1>"false,true"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F44:F47" xr:uid="{2C00793B-7C33-420D-8745-1FC4CE1FD6AE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F44:F51" xr:uid="{2C00793B-7C33-420D-8745-1FC4CE1FD6AE}">
       <formula1>"enterprise,standard,vdi"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5651,26 +5978,26 @@
       <selection activeCell="I34" sqref="I2:I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.90625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1796875" style="1"/>
+    <col min="6" max="6" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
@@ -5708,7 +6035,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -5746,7 +6073,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5784,7 +6111,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
@@ -5819,7 +6146,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -5851,7 +6178,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
@@ -5877,7 +6204,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -5903,7 +6230,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
@@ -5929,7 +6256,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
@@ -5952,7 +6279,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
@@ -5975,7 +6302,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -5998,7 +6325,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
@@ -6021,7 +6348,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
@@ -6041,7 +6368,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
@@ -6061,7 +6388,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
@@ -6081,7 +6408,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
@@ -6101,7 +6428,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>35</v>
       </c>
@@ -6118,7 +6445,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>40</v>
       </c>
@@ -6135,7 +6462,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I19" s="1" t="s">
         <v>709</v>
       </c>
@@ -6149,7 +6476,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I20" s="1" t="s">
         <v>710</v>
       </c>
@@ -6163,7 +6490,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I21" s="1" t="s">
         <v>711</v>
       </c>
@@ -6177,7 +6504,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I22" s="1" t="s">
         <v>712</v>
       </c>
@@ -6191,7 +6518,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I23" s="1" t="s">
         <v>713</v>
       </c>
@@ -6205,7 +6532,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I24" s="1" t="s">
         <v>714</v>
       </c>
@@ -6219,7 +6546,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I25" s="1" t="s">
         <v>715</v>
       </c>
@@ -6230,7 +6557,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I26" s="1" t="s">
         <v>716</v>
       </c>
@@ -6241,7 +6568,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I27" s="1" t="s">
         <v>717</v>
       </c>
@@ -6252,7 +6579,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I28" s="1" t="s">
         <v>718</v>
       </c>
@@ -6263,7 +6590,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I29" s="1" t="s">
         <v>719</v>
       </c>
@@ -6274,7 +6601,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I30" s="1" t="s">
         <v>720</v>
       </c>
@@ -6285,7 +6612,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I31" s="1" t="s">
         <v>721</v>
       </c>
@@ -6296,7 +6623,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I32" s="1" t="s">
         <v>722</v>
       </c>
@@ -6307,7 +6634,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="33" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I33" s="1" t="s">
         <v>723</v>
       </c>
@@ -6318,7 +6645,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="34" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I34" s="1" t="s">
         <v>724</v>
       </c>
@@ -6329,7 +6656,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="35" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="9:14" x14ac:dyDescent="0.25">
       <c r="L35" s="1" t="s">
         <v>94</v>
       </c>
@@ -6337,7 +6664,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="36" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="9:14" x14ac:dyDescent="0.25">
       <c r="L36" s="1" t="s">
         <v>95</v>
       </c>
@@ -6345,7 +6672,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="37" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="9:14" x14ac:dyDescent="0.25">
       <c r="L37" s="1" t="s">
         <v>96</v>
       </c>
@@ -6353,7 +6680,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="38" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="9:14" x14ac:dyDescent="0.25">
       <c r="L38" s="1" t="s">
         <v>97</v>
       </c>
@@ -6361,7 +6688,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="39" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="9:14" x14ac:dyDescent="0.25">
       <c r="L39" s="1" t="s">
         <v>98</v>
       </c>
@@ -6369,7 +6696,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="40" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="9:14" x14ac:dyDescent="0.25">
       <c r="L40" s="1" t="s">
         <v>99</v>
       </c>
@@ -6377,7 +6704,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="41" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="9:14" x14ac:dyDescent="0.25">
       <c r="L41" s="1" t="s">
         <v>100</v>
       </c>
@@ -6385,7 +6712,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="42" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="9:14" x14ac:dyDescent="0.25">
       <c r="L42" s="1" t="s">
         <v>101</v>
       </c>
@@ -6393,7 +6720,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="43" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="9:14" x14ac:dyDescent="0.25">
       <c r="L43" s="1" t="s">
         <v>102</v>
       </c>
@@ -6401,7 +6728,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="9:14" x14ac:dyDescent="0.25">
       <c r="L44" s="1" t="s">
         <v>103</v>
       </c>
@@ -6409,7 +6736,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="45" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="9:14" x14ac:dyDescent="0.25">
       <c r="L45" s="1" t="s">
         <v>104</v>
       </c>
@@ -6417,7 +6744,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="46" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="9:14" x14ac:dyDescent="0.25">
       <c r="L46" s="1" t="s">
         <v>105</v>
       </c>
@@ -6425,7 +6752,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="47" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="9:14" x14ac:dyDescent="0.25">
       <c r="L47" s="1" t="s">
         <v>106</v>
       </c>
@@ -6433,7 +6760,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="48" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="9:14" x14ac:dyDescent="0.25">
       <c r="L48" s="1" t="s">
         <v>107</v>
       </c>
@@ -6441,7 +6768,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="49" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L49" s="1" t="s">
         <v>108</v>
       </c>
@@ -6449,7 +6776,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="50" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L50" s="1" t="s">
         <v>109</v>
       </c>
@@ -6457,7 +6784,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="51" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L51" s="1" t="s">
         <v>110</v>
       </c>
@@ -6465,7 +6792,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="52" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L52" s="1" t="s">
         <v>111</v>
       </c>
@@ -6473,7 +6800,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="53" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L53" s="1" t="s">
         <v>112</v>
       </c>
@@ -6481,7 +6808,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="54" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L54" s="1" t="s">
         <v>113</v>
       </c>
@@ -6489,7 +6816,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="55" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L55" s="1" t="s">
         <v>114</v>
       </c>
@@ -6497,7 +6824,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="56" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L56" s="1" t="s">
         <v>115</v>
       </c>
@@ -6505,7 +6832,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="57" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L57" s="1" t="s">
         <v>116</v>
       </c>
@@ -6513,7 +6840,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="58" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L58" s="1" t="s">
         <v>117</v>
       </c>
@@ -6521,7 +6848,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="59" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L59" s="1" t="s">
         <v>118</v>
       </c>
@@ -6529,7 +6856,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="60" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L60" s="1" t="s">
         <v>119</v>
       </c>
@@ -6537,7 +6864,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="61" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L61" s="1" t="s">
         <v>120</v>
       </c>
@@ -6545,7 +6872,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="62" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L62" s="1" t="s">
         <v>121</v>
       </c>
@@ -6553,7 +6880,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="63" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L63" s="1" t="s">
         <v>122</v>
       </c>
@@ -6561,7 +6888,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="64" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L64" s="1" t="s">
         <v>123</v>
       </c>
@@ -6569,7 +6896,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="65" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L65" s="1" t="s">
         <v>124</v>
       </c>
@@ -6577,7 +6904,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="66" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L66" s="1" t="s">
         <v>125</v>
       </c>
@@ -6585,7 +6912,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="67" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L67" s="1" t="s">
         <v>126</v>
       </c>
@@ -6593,7 +6920,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="68" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L68" s="1" t="s">
         <v>127</v>
       </c>
@@ -6601,7 +6928,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="69" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L69" s="1" t="s">
         <v>128</v>
       </c>
@@ -6609,7 +6936,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="70" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L70" s="1" t="s">
         <v>129</v>
       </c>
@@ -6617,7 +6944,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="71" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L71" s="1" t="s">
         <v>130</v>
       </c>
@@ -6625,7 +6952,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="72" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L72" s="1" t="s">
         <v>131</v>
       </c>
@@ -6633,7 +6960,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="73" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L73" s="1" t="s">
         <v>132</v>
       </c>
@@ -6641,7 +6968,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="74" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L74" s="1" t="s">
         <v>133</v>
       </c>
@@ -6649,7 +6976,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="75" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L75" s="1" t="s">
         <v>134</v>
       </c>
@@ -6657,7 +6984,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="76" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L76" s="1" t="s">
         <v>135</v>
       </c>
@@ -6665,7 +6992,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="77" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L77" s="1" t="s">
         <v>136</v>
       </c>
@@ -6673,7 +7000,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="78" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L78" s="1" t="s">
         <v>137</v>
       </c>
@@ -6681,7 +7008,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="79" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L79" s="1" t="s">
         <v>138</v>
       </c>
@@ -6689,7 +7016,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="80" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L80" s="1" t="s">
         <v>139</v>
       </c>
@@ -6697,7 +7024,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="81" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L81" s="1" t="s">
         <v>140</v>
       </c>
@@ -6705,7 +7032,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="82" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L82" s="1" t="s">
         <v>141</v>
       </c>
@@ -6713,7 +7040,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="83" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L83" s="1" t="s">
         <v>142</v>
       </c>
@@ -6721,7 +7048,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="84" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L84" s="1" t="s">
         <v>143</v>
       </c>
@@ -6729,7 +7056,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="85" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L85" s="1" t="s">
         <v>144</v>
       </c>
@@ -6737,7 +7064,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="86" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L86" s="1" t="s">
         <v>145</v>
       </c>
@@ -6745,7 +7072,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="87" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L87" s="1" t="s">
         <v>146</v>
       </c>
@@ -6753,7 +7080,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="88" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L88" s="1" t="s">
         <v>147</v>
       </c>
@@ -6761,7 +7088,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="89" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L89" s="1" t="s">
         <v>148</v>
       </c>
@@ -6769,7 +7096,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="90" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L90" s="1" t="s">
         <v>149</v>
       </c>
@@ -6777,7 +7104,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="91" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L91" s="1" t="s">
         <v>150</v>
       </c>
@@ -6785,7 +7112,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="92" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L92" s="1" t="s">
         <v>151</v>
       </c>
@@ -6793,7 +7120,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="93" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L93" s="1" t="s">
         <v>152</v>
       </c>
@@ -6801,7 +7128,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="94" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L94" s="1" t="s">
         <v>153</v>
       </c>
@@ -6809,7 +7136,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="95" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L95" s="1" t="s">
         <v>154</v>
       </c>
@@ -6817,7 +7144,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="96" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L96" s="1" t="s">
         <v>155</v>
       </c>
@@ -6825,7 +7152,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="97" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L97" s="1" t="s">
         <v>156</v>
       </c>
@@ -6833,7 +7160,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="98" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L98" s="1" t="s">
         <v>157</v>
       </c>
@@ -6841,7 +7168,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="99" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L99" s="1" t="s">
         <v>158</v>
       </c>
@@ -6849,7 +7176,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="100" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L100" s="1" t="s">
         <v>159</v>
       </c>
@@ -6857,7 +7184,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="101" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L101" s="1" t="s">
         <v>160</v>
       </c>
@@ -6865,7 +7192,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="102" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L102" s="1" t="s">
         <v>161</v>
       </c>
@@ -6873,7 +7200,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="103" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L103" s="1" t="s">
         <v>162</v>
       </c>
@@ -6881,7 +7208,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="104" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L104" s="1" t="s">
         <v>163</v>
       </c>
@@ -6889,7 +7216,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="105" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L105" s="1" t="s">
         <v>164</v>
       </c>
@@ -6897,7 +7224,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="106" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L106" s="1" t="s">
         <v>165</v>
       </c>
@@ -6905,7 +7232,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="107" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L107" s="1" t="s">
         <v>166</v>
       </c>
@@ -6913,7 +7240,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="108" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L108" s="1" t="s">
         <v>167</v>
       </c>
@@ -6921,7 +7248,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="109" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L109" s="1" t="s">
         <v>168</v>
       </c>
@@ -6929,7 +7256,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="110" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L110" s="1" t="s">
         <v>169</v>
       </c>
@@ -6937,7 +7264,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="111" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L111" s="1" t="s">
         <v>170</v>
       </c>
@@ -6945,7 +7272,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="112" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L112" s="1" t="s">
         <v>171</v>
       </c>
@@ -6953,7 +7280,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="113" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L113" s="1" t="s">
         <v>172</v>
       </c>
@@ -6961,7 +7288,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="114" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L114" s="1" t="s">
         <v>173</v>
       </c>
@@ -6969,7 +7296,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="115" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L115" s="1" t="s">
         <v>174</v>
       </c>
@@ -6977,7 +7304,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="116" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L116" s="1" t="s">
         <v>175</v>
       </c>
@@ -6985,7 +7312,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="117" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="117" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L117" s="1" t="s">
         <v>176</v>
       </c>
@@ -6993,7 +7320,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="118" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L118" s="1" t="s">
         <v>177</v>
       </c>
@@ -7001,7 +7328,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="119" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="119" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L119" s="1" t="s">
         <v>178</v>
       </c>
@@ -7009,7 +7336,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="120" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L120" s="1" t="s">
         <v>179</v>
       </c>
@@ -7017,7 +7344,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="121" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L121" s="1" t="s">
         <v>180</v>
       </c>
@@ -7025,7 +7352,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="122" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L122" s="1" t="s">
         <v>181</v>
       </c>
@@ -7033,7 +7360,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="123" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L123" s="1" t="s">
         <v>182</v>
       </c>
@@ -7041,7 +7368,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="124" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="124" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L124" s="1" t="s">
         <v>183</v>
       </c>
@@ -7049,7 +7376,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="125" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L125" s="1" t="s">
         <v>184</v>
       </c>
@@ -7057,7 +7384,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="126" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L126" s="1" t="s">
         <v>185</v>
       </c>
@@ -7065,7 +7392,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="127" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L127" s="1" t="s">
         <v>186</v>
       </c>
@@ -7073,7 +7400,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="128" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L128" s="1" t="s">
         <v>187</v>
       </c>
@@ -7081,7 +7408,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="129" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L129" s="1" t="s">
         <v>188</v>
       </c>
@@ -7089,7 +7416,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="130" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L130" s="1" t="s">
         <v>189</v>
       </c>
@@ -7097,7 +7424,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="131" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L131" s="1" t="s">
         <v>190</v>
       </c>
@@ -7105,7 +7432,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="132" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L132" s="1" t="s">
         <v>191</v>
       </c>
@@ -7113,7 +7440,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="133" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L133" s="1" t="s">
         <v>192</v>
       </c>
@@ -7121,7 +7448,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="134" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L134" s="1" t="s">
         <v>193</v>
       </c>
@@ -7129,7 +7456,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="135" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L135" s="1" t="s">
         <v>194</v>
       </c>
@@ -7137,7 +7464,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="136" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L136" s="1" t="s">
         <v>195</v>
       </c>
@@ -7145,7 +7472,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="137" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L137" s="1" t="s">
         <v>196</v>
       </c>
@@ -7153,7 +7480,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="138" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L138" s="1" t="s">
         <v>197</v>
       </c>
@@ -7161,7 +7488,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="139" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L139" s="1" t="s">
         <v>198</v>
       </c>
@@ -7169,7 +7496,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="140" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L140" s="1" t="s">
         <v>199</v>
       </c>
@@ -7177,7 +7504,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="141" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L141" s="1" t="s">
         <v>200</v>
       </c>
@@ -7185,1382 +7512,1382 @@
         <v>398</v>
       </c>
     </row>
-    <row r="142" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="12:14" x14ac:dyDescent="0.25">
       <c r="N142" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="143" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="12:14" x14ac:dyDescent="0.25">
       <c r="N143" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="144" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="12:14" x14ac:dyDescent="0.25">
       <c r="N144" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="145" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="145" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N145" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="146" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="146" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N146" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="147" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="147" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N147" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="148" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="148" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N148" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="149" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="149" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N149" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="150" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="150" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N150" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="151" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="151" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N151" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="152" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="152" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N152" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="153" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="153" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N153" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="154" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="154" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N154" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="155" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="155" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N155" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="156" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="156" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N156" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="157" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="157" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N157" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="158" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="158" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N158" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="159" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="159" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N159" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="160" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="160" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N160" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="161" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="161" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N161" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="162" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="162" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N162" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="163" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="163" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N163" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="164" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="164" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N164" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="165" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="165" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N165" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="166" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="166" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N166" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="167" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="167" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N167" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="168" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="168" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N168" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="169" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="169" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N169" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="170" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="170" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N170" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="171" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="171" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N171" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="172" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="172" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N172" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="173" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="173" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N173" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="174" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="174" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N174" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="175" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="175" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N175" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="176" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="176" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N176" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="177" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="177" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N177" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="178" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="178" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N178" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="179" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="179" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N179" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="180" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="180" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N180" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="181" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="181" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N181" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="182" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="182" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N182" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="183" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="183" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N183" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="184" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="184" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N184" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="185" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="185" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N185" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="186" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="186" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N186" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="187" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="187" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N187" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="188" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="188" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N188" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="189" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="189" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N189" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="190" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="190" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N190" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="191" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="191" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N191" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="192" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="192" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N192" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="193" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="193" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N193" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="194" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="194" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N194" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="195" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="195" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N195" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="196" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="196" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N196" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="197" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="197" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N197" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="198" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="198" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N198" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="199" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="199" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N199" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="200" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="200" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N200" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="201" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="201" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N201" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="202" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="202" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N202" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="203" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="203" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N203" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="204" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="204" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N204" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="205" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="205" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N205" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="206" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="206" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N206" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="207" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="207" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N207" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="208" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="208" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N208" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="209" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="209" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N209" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="210" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="210" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N210" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="211" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="211" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N211" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="212" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="212" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N212" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="213" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="213" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N213" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="214" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="214" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N214" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="215" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="215" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N215" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="216" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="216" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N216" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="217" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="217" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N217" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="218" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="218" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N218" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="219" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="219" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N219" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="220" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="220" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N220" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="221" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="221" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N221" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="222" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="222" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N222" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="223" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="223" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N223" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="224" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="224" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N224" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="225" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="225" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N225" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="226" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="226" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N226" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="227" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="227" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N227" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="228" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="228" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N228" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="229" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="229" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N229" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="230" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="230" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N230" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="231" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="231" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N231" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="232" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="232" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N232" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="233" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="233" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N233" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="234" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="234" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N234" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="235" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="235" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N235" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="236" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="236" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N236" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="237" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="237" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N237" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="238" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="238" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N238" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="239" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="239" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N239" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="240" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="240" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N240" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="241" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="241" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N241" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="242" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="242" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N242" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="243" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="243" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N243" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="244" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="244" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N244" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="245" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="245" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N245" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="246" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="246" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N246" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="247" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="247" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N247" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="248" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="248" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N248" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="249" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="249" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N249" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="250" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="250" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N250" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="251" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="251" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N251" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="252" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="252" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N252" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="253" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="253" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N253" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="254" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="254" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N254" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="255" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="255" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N255" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="256" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="256" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N256" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="257" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="257" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N257" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="258" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="258" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N258" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="259" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="259" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N259" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="260" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="260" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N260" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="261" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="261" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N261" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="262" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="262" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N262" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="263" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="263" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N263" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="264" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="264" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N264" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="265" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="265" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N265" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="266" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="266" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N266" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="267" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="267" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N267" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="268" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="268" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N268" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="269" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="269" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N269" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="270" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="270" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N270" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="271" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="271" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N271" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="272" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="272" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N272" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="273" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="273" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N273" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="274" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="274" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N274" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="275" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="275" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N275" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="276" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="276" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N276" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="277" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="277" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N277" s="1" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="278" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="278" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N278" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="279" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="279" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N279" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="280" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="280" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N280" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="281" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="281" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N281" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="282" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="282" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N282" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="283" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="283" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N283" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="284" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="284" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N284" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="285" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="285" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N285" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="286" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="286" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N286" s="1" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="287" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="287" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N287" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="288" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="288" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N288" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="289" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="289" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N289" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="290" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="290" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N290" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="291" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="291" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N291" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="292" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="292" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N292" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="293" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="293" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N293" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="294" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="294" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N294" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="295" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="295" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N295" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="296" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="296" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N296" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="297" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="297" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N297" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="298" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="298" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N298" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="299" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="299" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N299" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="300" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="300" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N300" s="1" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="301" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="301" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N301" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="302" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="302" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N302" s="1" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="303" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="303" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N303" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="304" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="304" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N304" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="305" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="305" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N305" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="306" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="306" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N306" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="307" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="307" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N307" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="308" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="308" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N308" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="309" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="309" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N309" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="310" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="310" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N310" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="311" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="311" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N311" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="312" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="312" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N312" s="1" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="313" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="313" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N313" s="1" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="314" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="314" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N314" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="315" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="315" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N315" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="316" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="316" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N316" s="1" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="317" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="317" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N317" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="318" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="318" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N318" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="319" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="319" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N319" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="320" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="320" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N320" s="1" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="321" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="321" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N321" s="1" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="322" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="322" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N322" s="1" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="323" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="323" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N323" s="1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="324" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="324" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N324" s="1" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="325" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="325" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N325" s="1" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="326" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="326" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N326" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="327" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="327" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N327" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="328" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="328" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N328" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="329" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="329" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N329" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="330" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="330" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N330" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="331" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="331" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N331" s="1" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="332" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="332" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N332" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="333" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="333" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N333" s="1" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="334" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="334" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N334" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="335" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="335" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N335" s="1" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="336" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="336" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N336" s="1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="337" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="337" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N337" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="338" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="338" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N338" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="339" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="339" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N339" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="340" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="340" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N340" s="1" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="341" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="341" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N341" s="1" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="342" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="342" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N342" s="1" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="343" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="343" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N343" s="1" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="344" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="344" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N344" s="1" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="345" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="345" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N345" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="346" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="346" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N346" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="347" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="347" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N347" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="348" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="348" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N348" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="349" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="349" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N349" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="350" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="350" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N350" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="351" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="351" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N351" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="352" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="352" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N352" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="353" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="353" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N353" s="1" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="354" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="354" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N354" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="355" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="355" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N355" s="1" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="356" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="356" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N356" s="1" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="357" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="357" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N357" s="1" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="358" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="358" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N358" s="1" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="359" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="359" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N359" s="1" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="360" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="360" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N360" s="1" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="361" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="361" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N361" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="362" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="362" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N362" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="363" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="363" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N363" s="1" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="364" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="364" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N364" s="1" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="365" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="365" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N365" s="1" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="366" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="366" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N366" s="1" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="367" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="367" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N367" s="1" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="368" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="368" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N368" s="1" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="369" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="369" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N369" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="370" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="370" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N370" s="1" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="371" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="371" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N371" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="372" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="372" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N372" s="1" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="373" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="373" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N373" s="1" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="374" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="374" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N374" s="1" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="375" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="375" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N375" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="376" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="376" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N376" s="1" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="377" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="377" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N377" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="378" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="378" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N378" s="1" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="379" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="379" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N379" s="1" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="380" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="380" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N380" s="1" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="381" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="381" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N381" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="382" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="382" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N382" s="1" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="383" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="383" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N383" s="1" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="384" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="384" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N384" s="1" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="385" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="385" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N385" s="1" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="386" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="386" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N386" s="1" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="387" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="387" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N387" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="388" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="388" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N388" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="389" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="389" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N389" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="390" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="390" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N390" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="391" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="391" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N391" s="1" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="392" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="392" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N392" s="1" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="393" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="393" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N393" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="394" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="394" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N394" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="395" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="395" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N395" s="1" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="396" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="396" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N396" s="1" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="397" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="397" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N397" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="398" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="398" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N398" s="1" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="399" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="399" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N399" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="400" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="400" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N400" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="401" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="401" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N401" s="1" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="402" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="402" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N402" s="1" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="403" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="403" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N403" s="1" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="404" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="404" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N404" s="1" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="405" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="405" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N405" s="1" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="406" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="406" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N406" s="1" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="407" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="407" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N407" s="1" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="408" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="408" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N408" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="409" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="409" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N409" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="410" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="410" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N410" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="411" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="411" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N411" s="1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="412" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="412" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N412" s="1" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="413" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="413" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N413" s="1" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="414" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="414" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N414" s="1" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="415" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="415" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N415" s="1" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="416" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="416" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N416" s="1" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="417" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="417" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N417" s="1" t="s">
         <v>674</v>
       </c>
